--- a/Documentation/ESD - Burndown Chart - Sprint 1.xlsx
+++ b/Documentation/ESD - Burndown Chart - Sprint 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conranpearce/Documents/UWE/Third Year/Computer Science/ESD/Assignment/In progress:Complete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BB09CD-E2F2-934F-86A2-AB70834233BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8BD540-73B9-0646-AF1A-BFA7787B701D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -354,7 +354,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -428,46 +428,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>480</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>390</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>240</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -509,7 +509,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -571,49 +583,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>288</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>192</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>96</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,7 +1847,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2019,7 +2031,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -2031,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -2043,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K4" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L4" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M4" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -2061,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11">
         <f>B4-(SUM(C4:P4))</f>
@@ -2073,40 +2085,40 @@
         <v>7</v>
       </c>
       <c r="B5" s="8">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H5" s="8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
       </c>
       <c r="J5" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K5" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L5" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M5" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
@@ -2115,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="12">
         <f>B5-(SUM(C5:P5))</f>
@@ -2127,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="6">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -2136,31 +2148,31 @@
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I6" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J6" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K6" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L6" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
@@ -2232,19 +2244,19 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E9" s="6">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F9" s="6">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="G9" s="6">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -2253,16 +2265,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K9" s="6">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="L9" s="6">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="M9" s="6">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N9" s="6">
         <v>0</v>
@@ -2272,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -2281,60 +2293,60 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8">
-        <f>SUM(C2:C6)</f>
+        <f t="shared" ref="C10:P10" si="0">SUM(C2:C6)</f>
         <v>90</v>
       </c>
       <c r="D10" s="8">
-        <f>SUM(D2:D6)</f>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E10" s="8">
-        <f>SUM(E2:E6)</f>
-        <v>20</v>
-      </c>
       <c r="F10" s="8">
-        <f>SUM(F2:F6)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G10" s="8">
-        <f>SUM(G2:G6)</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="H10" s="8">
-        <f>SUM(H2:H6)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="I10" s="8">
-        <f>SUM(I2:I6)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="J10" s="9">
-        <f>SUM(J2:J6)</f>
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K10" s="9">
-        <f>SUM(K2:K6)</f>
-        <v>40</v>
-      </c>
-      <c r="L10" s="9">
-        <f>SUM(L2:L6)</f>
-        <v>40</v>
-      </c>
       <c r="M10" s="9">
-        <f>SUM(M2:M6)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="N10" s="9">
-        <f>SUM(N2:N6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <f>SUM(O2:O6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="9">
-        <f>SUM(P2:P6)</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -2343,62 +2355,62 @@
       </c>
       <c r="B11" s="6">
         <f>SUM(B2:B6)</f>
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="C11" s="6">
         <f>B11-C10</f>
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="D11" s="6">
         <f>C11-D10</f>
-        <v>360</v>
+        <v>690</v>
       </c>
       <c r="E11" s="6">
         <f>D11-E10</f>
-        <v>340</v>
+        <v>660</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" ref="D11:P11" si="0">E11-F10</f>
-        <v>280</v>
+        <f t="shared" ref="F11:P11" si="1">E11-F10</f>
+        <v>600</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
       <c r="K11" s="6">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2408,63 +2420,63 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(B2:B6)</f>
+        <v>840</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:P12" si="2">B12-C9</f>
+        <v>750</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>570</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="C12" s="1">
-        <f>B12-C9</f>
-        <v>432</v>
-      </c>
-      <c r="D12" s="1">
-        <f>C12-D9</f>
-        <v>384</v>
-      </c>
-      <c r="E12" s="1">
-        <f>D12-E9</f>
-        <v>336</v>
-      </c>
-      <c r="F12" s="1">
-        <f>E12-F9</f>
-        <v>288</v>
-      </c>
       <c r="G12" s="1">
-        <f>F12-G9</f>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>390</v>
       </c>
       <c r="H12" s="1">
-        <f>G12-H9</f>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>390</v>
       </c>
       <c r="I12" s="1">
-        <f>H12-I9</f>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>390</v>
       </c>
       <c r="J12" s="1">
-        <f>I12-J9</f>
-        <v>192</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="K12" s="1">
-        <f>J12-K9</f>
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>210</v>
       </c>
       <c r="L12" s="1">
-        <f>K12-L9</f>
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>130</v>
       </c>
       <c r="M12" s="1">
-        <f>L12-M9</f>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="N12" s="1">
-        <f>M12-N9</f>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="O12" s="1">
-        <f>N12-O9</f>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="P12" s="1">
-        <f>O12-P9</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
